--- a/biology/Botanique/Syagrus_amara/Syagrus_amara.xlsx
+++ b/biology/Botanique/Syagrus_amara/Syagrus_amara.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Syagrus amara est une espèce de plantes de la famille des Arecaceae (les palmiers).
-Au titre de la Liste rouge de la flore vasculaire,  cette espèce est classée[1] :
+Au titre de la Liste rouge de la flore vasculaire,  cette espèce est classée :
 - en Guadeloupe dans la catégorie vulnérable
 - en Martinique dans la catégorie en danger.
 Il s'agit d'une espèce déterminante pour l'établissement des Zones naturelles d'intérêt écologique, faunistique et floristique.
@@ -515,9 +527,11 @@
           <t>Dénominations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce palmier est appelé « Yattahou » et « Coco nain » à la Dominique, « Petit coco de bois » en Guadeloupe, « Petit coco » en Martinique. À Montserrat il est appelé « Mocho »[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce palmier est appelé « Yattahou » et « Coco nain » à la Dominique, « Petit coco de bois » en Guadeloupe, « Petit coco » en Martinique. À Montserrat il est appelé « Mocho ».
 </t>
         </is>
       </c>
